--- a/期货品种表.xlsx
+++ b/期货品种表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/机构持仓/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/gpt_prompt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C981A71-7AAC-3648-BEC4-235722C550E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D37D67B-69D5-2C4B-A0C1-D95F9718761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="1400" windowWidth="27840" windowHeight="16940" xr2:uid="{31D9789B-1720-2A4E-BB74-3C78A10BE856}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <r>
       <rPr>
@@ -831,6 +831,19 @@
         <family val="2"/>
       </rPr>
       <t>1000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玻璃</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -889,7 +902,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -910,6 +923,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -934,7 +958,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1300,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914AC35C-7EEE-A54A-AEBF-C5F1D8C8232B}">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1617,13 +1641,18 @@
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1660,7 @@
   <conditionalFormatting sqref="A1:A56">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A63">
+  <conditionalFormatting sqref="A1:A64">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/期货品种表.xlsx
+++ b/期货品种表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/gpt_prompt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D37D67B-69D5-2C4B-A0C1-D95F9718761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD37AEE-949C-5B48-B6E4-E5984A856052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="1400" windowWidth="27840" windowHeight="16940" xr2:uid="{31D9789B-1720-2A4E-BB74-3C78A10BE856}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <r>
       <rPr>
@@ -844,6 +844,40 @@
         <charset val="134"/>
       </rPr>
       <t>玻璃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三十年国债</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苯乙烯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1324,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914AC35C-7EEE-A54A-AEBF-C5F1D8C8232B}">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1655,12 +1689,32 @@
         <v>63</v>
       </c>
     </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A56">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A64">
+  <conditionalFormatting sqref="A1:A68">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
